--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il16-Grin2d.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il16-Grin2d.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.7754575</v>
+        <v>3.186175</v>
       </c>
       <c r="H2">
-        <v>7.550915</v>
+        <v>6.37235</v>
       </c>
       <c r="I2">
-        <v>0.1708449704380497</v>
+        <v>0.1401839069896986</v>
       </c>
       <c r="J2">
-        <v>0.1225509496985904</v>
+        <v>0.09997212951453034</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.172542</v>
+        <v>0.257879</v>
       </c>
       <c r="N2">
-        <v>0.345084</v>
+        <v>0.515758</v>
       </c>
       <c r="O2">
-        <v>0.09359174640369718</v>
+        <v>0.1530814226195676</v>
       </c>
       <c r="P2">
-        <v>0.07029591859391866</v>
+        <v>0.1145429413327151</v>
       </c>
       <c r="Q2">
-        <v>0.651424987965</v>
+        <v>0.821647622825</v>
       </c>
       <c r="R2">
-        <v>2.60569995186</v>
+        <v>3.2865904913</v>
       </c>
       <c r="S2">
-        <v>0.01598967914758509</v>
+        <v>0.02145955191035221</v>
       </c>
       <c r="T2">
-        <v>0.008614831583619531</v>
+        <v>0.01145110176588944</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.7754575</v>
+        <v>3.186175</v>
       </c>
       <c r="H3">
-        <v>7.550915</v>
+        <v>6.37235</v>
       </c>
       <c r="I3">
-        <v>0.1708449704380497</v>
+        <v>0.1401839069896986</v>
       </c>
       <c r="J3">
-        <v>0.1225509496985904</v>
+        <v>0.09997212951453034</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.092342</v>
       </c>
       <c r="O3">
-        <v>0.5591250985412282</v>
+        <v>0.6118891839276548</v>
       </c>
       <c r="P3">
-        <v>0.6299307458374067</v>
+        <v>0.6867677249537395</v>
       </c>
       <c r="Q3">
-        <v>3.891668598821667</v>
+        <v>3.284247590616667</v>
       </c>
       <c r="R3">
-        <v>23.35001159293</v>
+        <v>19.7054855437</v>
       </c>
       <c r="S3">
-        <v>0.09552371093144774</v>
+        <v>0.08577701644771692</v>
       </c>
       <c r="T3">
-        <v>0.07719861114671557</v>
+        <v>0.0686576319454746</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.7754575</v>
+        <v>3.186175</v>
       </c>
       <c r="H4">
-        <v>7.550915</v>
+        <v>6.37235</v>
       </c>
       <c r="I4">
-        <v>0.1708449704380497</v>
+        <v>0.1401839069896986</v>
       </c>
       <c r="J4">
-        <v>0.1225509496985904</v>
+        <v>0.09997212951453034</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03669233333333333</v>
+        <v>0.2931345</v>
       </c>
       <c r="N4">
-        <v>0.110077</v>
+        <v>0.5862689999999999</v>
       </c>
       <c r="O4">
-        <v>0.01990297757237808</v>
+        <v>0.174009695550532</v>
       </c>
       <c r="P4">
-        <v>0.02242342105418619</v>
+        <v>0.1302024896796356</v>
       </c>
       <c r="Q4">
-        <v>0.1385303450758333</v>
+        <v>0.9339778155374999</v>
       </c>
       <c r="R4">
-        <v>0.831182070455</v>
+        <v>3.73591126215</v>
       </c>
       <c r="S4">
-        <v>0.003400323614982098</v>
+        <v>0.02439335897636154</v>
       </c>
       <c r="T4">
-        <v>0.002748011545681884</v>
+        <v>0.01301662016136683</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.7754575</v>
+        <v>3.186175</v>
       </c>
       <c r="H5">
-        <v>7.550915</v>
+        <v>6.37235</v>
       </c>
       <c r="I5">
-        <v>0.1708449704380497</v>
+        <v>0.1401839069896986</v>
       </c>
       <c r="J5">
-        <v>0.1225509496985904</v>
+        <v>0.09997212951453034</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.449119</v>
+        <v>0.065664</v>
       </c>
       <c r="N5">
-        <v>0.898238</v>
+        <v>0.196992</v>
       </c>
       <c r="O5">
-        <v>0.2436150708411985</v>
+        <v>0.03897928305480977</v>
       </c>
       <c r="P5">
-        <v>0.1829770876828955</v>
+        <v>0.04374928377071069</v>
       </c>
       <c r="Q5">
-        <v>1.6956296969425</v>
+        <v>0.2092169952</v>
       </c>
       <c r="R5">
-        <v>6.78251878777</v>
+        <v>1.2553019712</v>
       </c>
       <c r="S5">
-        <v>0.04162040957612793</v>
+        <v>0.005464268190280587</v>
       </c>
       <c r="T5">
-        <v>0.02242401586862109</v>
+        <v>0.004373709063293429</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.7754575</v>
+        <v>3.186175</v>
       </c>
       <c r="H6">
-        <v>7.550915</v>
+        <v>6.37235</v>
       </c>
       <c r="I6">
-        <v>0.1708449704380497</v>
+        <v>0.1401839069896986</v>
       </c>
       <c r="J6">
-        <v>0.1225509496985904</v>
+        <v>0.09997212951453034</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04265333333333333</v>
+        <v>0.037129</v>
       </c>
       <c r="N6">
-        <v>0.12796</v>
+        <v>0.111387</v>
       </c>
       <c r="O6">
-        <v>0.02313639552460095</v>
+        <v>0.02204041484743592</v>
       </c>
       <c r="P6">
-        <v>0.02606630774906351</v>
+        <v>0.02473756026319928</v>
       </c>
       <c r="Q6">
-        <v>0.1610358472333333</v>
+        <v>0.118299491575</v>
       </c>
       <c r="R6">
-        <v>0.9662150834</v>
+        <v>0.70979694945</v>
       </c>
       <c r="S6">
-        <v>0.003952736809443473</v>
+        <v>0.003089711464987328</v>
       </c>
       <c r="T6">
-        <v>0.003194450769783459</v>
+        <v>0.002473066578506058</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.7754575</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H7">
-        <v>7.550915</v>
+        <v>3.981953</v>
       </c>
       <c r="I7">
-        <v>0.1708449704380497</v>
+        <v>0.0583987308700193</v>
       </c>
       <c r="J7">
-        <v>0.1225509496985904</v>
+        <v>0.06247056753580275</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1117726666666667</v>
+        <v>0.257879</v>
       </c>
       <c r="N7">
-        <v>0.335318</v>
+        <v>0.515758</v>
       </c>
       <c r="O7">
-        <v>0.06062871111689701</v>
+        <v>0.1530814226195676</v>
       </c>
       <c r="P7">
-        <v>0.06830651908252952</v>
+        <v>0.1145429413327151</v>
       </c>
       <c r="Q7">
-        <v>0.4219929526616667</v>
+        <v>0.3422873525623334</v>
       </c>
       <c r="R7">
-        <v>2.53195771597</v>
+        <v>2.053724115374</v>
       </c>
       <c r="S7">
-        <v>0.01035811035846332</v>
+        <v>0.008939760800759814</v>
       </c>
       <c r="T7">
-        <v>0.00837102878416888</v>
+        <v>0.00715556255227487</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>3.981953</v>
       </c>
       <c r="I8">
-        <v>0.06006306454875144</v>
+        <v>0.0583987308700193</v>
       </c>
       <c r="J8">
-        <v>0.06462688585491309</v>
+        <v>0.06247056753580275</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.172542</v>
+        <v>1.030780666666667</v>
       </c>
       <c r="N8">
-        <v>0.345084</v>
+        <v>3.092342</v>
       </c>
       <c r="O8">
-        <v>0.09359174640369718</v>
+        <v>0.6118891839276548</v>
       </c>
       <c r="P8">
-        <v>0.07029591859391866</v>
+        <v>0.6867677249537395</v>
       </c>
       <c r="Q8">
-        <v>0.229018044842</v>
+        <v>1.368173389325111</v>
       </c>
       <c r="R8">
-        <v>1.374108269052</v>
+        <v>12.313560503926</v>
       </c>
       <c r="S8">
-        <v>0.005621407105475639</v>
+        <v>0.03573355177446685</v>
       </c>
       <c r="T8">
-        <v>0.004543006307035444</v>
+        <v>0.04290276954313219</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>3.981953</v>
       </c>
       <c r="I9">
-        <v>0.06006306454875144</v>
+        <v>0.0583987308700193</v>
       </c>
       <c r="J9">
-        <v>0.06462688585491309</v>
+        <v>0.06247056753580275</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.030780666666667</v>
+        <v>0.2931345</v>
       </c>
       <c r="N9">
-        <v>3.092342</v>
+        <v>0.5862689999999999</v>
       </c>
       <c r="O9">
-        <v>0.5591250985412282</v>
+        <v>0.174009695550532</v>
       </c>
       <c r="P9">
-        <v>0.6299307458374067</v>
+        <v>0.1302024896796356</v>
       </c>
       <c r="Q9">
-        <v>1.368173389325111</v>
+        <v>0.3890826005595</v>
       </c>
       <c r="R9">
-        <v>12.313560503926</v>
+        <v>2.334495603357</v>
       </c>
       <c r="S9">
-        <v>0.0335827668845088</v>
+        <v>0.01016194537922951</v>
       </c>
       <c r="T9">
-        <v>0.04071046240773436</v>
+        <v>0.008133823424861339</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>3.981953</v>
       </c>
       <c r="I10">
-        <v>0.06006306454875144</v>
+        <v>0.0583987308700193</v>
       </c>
       <c r="J10">
-        <v>0.06462688585491309</v>
+        <v>0.06247056753580275</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03669233333333333</v>
+        <v>0.065664</v>
       </c>
       <c r="N10">
-        <v>0.110077</v>
+        <v>0.196992</v>
       </c>
       <c r="O10">
-        <v>0.01990297757237808</v>
+        <v>0.03897928305480977</v>
       </c>
       <c r="P10">
-        <v>0.02242342105418619</v>
+        <v>0.04374928377071069</v>
       </c>
       <c r="Q10">
-        <v>0.04870238226455555</v>
+        <v>0.08715698726400001</v>
       </c>
       <c r="R10">
-        <v>0.438321440381</v>
+        <v>0.7844128853760001</v>
       </c>
       <c r="S10">
-        <v>0.001195433826642097</v>
+        <v>0.00227634066062414</v>
       </c>
       <c r="T10">
-        <v>0.001449155872945546</v>
+        <v>0.002733042586441181</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>3.981953</v>
       </c>
       <c r="I11">
-        <v>0.06006306454875144</v>
+        <v>0.0583987308700193</v>
       </c>
       <c r="J11">
-        <v>0.06462688585491309</v>
+        <v>0.06247056753580275</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.449119</v>
+        <v>0.037129</v>
       </c>
       <c r="N11">
-        <v>0.898238</v>
+        <v>0.111387</v>
       </c>
       <c r="O11">
-        <v>0.2436150708411985</v>
+        <v>0.02204041484743592</v>
       </c>
       <c r="P11">
-        <v>0.1829770876828955</v>
+        <v>0.02473756026319928</v>
       </c>
       <c r="Q11">
-        <v>0.5961235831356666</v>
+        <v>0.04928197764566668</v>
       </c>
       <c r="R11">
-        <v>3.576741498814</v>
+        <v>0.443537798811</v>
       </c>
       <c r="S11">
-        <v>0.01463226772498356</v>
+        <v>0.001287132254938988</v>
       </c>
       <c r="T11">
-        <v>0.01182523935974691</v>
+        <v>0.001545369429093181</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.327317666666667</v>
+        <v>3.568381333333333</v>
       </c>
       <c r="H12">
-        <v>3.981953</v>
+        <v>10.705144</v>
       </c>
       <c r="I12">
-        <v>0.06006306454875144</v>
+        <v>0.1570000508245079</v>
       </c>
       <c r="J12">
-        <v>0.06462688585491309</v>
+        <v>0.1679468394610618</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04265333333333333</v>
+        <v>0.257879</v>
       </c>
       <c r="N12">
-        <v>0.12796</v>
+        <v>0.515758</v>
       </c>
       <c r="O12">
-        <v>0.02313639552460095</v>
+        <v>0.1530814226195676</v>
       </c>
       <c r="P12">
-        <v>0.02606630774906351</v>
+        <v>0.1145429413327151</v>
       </c>
       <c r="Q12">
-        <v>0.05661452287555555</v>
+        <v>0.9202106098586668</v>
       </c>
       <c r="R12">
-        <v>0.5095307058799999</v>
+        <v>5.521263659152001</v>
       </c>
       <c r="S12">
-        <v>0.001389642817819551</v>
+        <v>0.0240337911315601</v>
       </c>
       <c r="T12">
-        <v>0.001684584295557764</v>
+        <v>0.01923712497940332</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.327317666666667</v>
+        <v>3.568381333333333</v>
       </c>
       <c r="H13">
-        <v>3.981953</v>
+        <v>10.705144</v>
       </c>
       <c r="I13">
-        <v>0.06006306454875144</v>
+        <v>0.1570000508245079</v>
       </c>
       <c r="J13">
-        <v>0.06462688585491309</v>
+        <v>0.1679468394610618</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1117726666666667</v>
+        <v>1.030780666666667</v>
       </c>
       <c r="N13">
-        <v>0.335318</v>
+        <v>3.092342</v>
       </c>
       <c r="O13">
-        <v>0.06062871111689701</v>
+        <v>0.6118891839276548</v>
       </c>
       <c r="P13">
-        <v>0.06830651908252952</v>
+        <v>0.6867677249537395</v>
       </c>
       <c r="Q13">
-        <v>0.1483578351171111</v>
+        <v>3.678218489694223</v>
       </c>
       <c r="R13">
-        <v>1.335220516054</v>
+        <v>33.10396640724801</v>
       </c>
       <c r="S13">
-        <v>0.003641546189321789</v>
+        <v>0.09606663297560848</v>
       </c>
       <c r="T13">
-        <v>0.004414437611893078</v>
+        <v>0.1153404688498444</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.188097999999999</v>
+        <v>3.568381333333333</v>
       </c>
       <c r="H14">
-        <v>15.564294</v>
+        <v>10.705144</v>
       </c>
       <c r="I14">
-        <v>0.2347690179109961</v>
+        <v>0.1570000508245079</v>
       </c>
       <c r="J14">
-        <v>0.2526076655727249</v>
+        <v>0.1679468394610618</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.172542</v>
+        <v>0.2931345</v>
       </c>
       <c r="N14">
-        <v>0.345084</v>
+        <v>0.5862689999999999</v>
       </c>
       <c r="O14">
-        <v>0.09359174640369718</v>
+        <v>0.174009695550532</v>
       </c>
       <c r="P14">
-        <v>0.07029591859391866</v>
+        <v>0.1302024896796356</v>
       </c>
       <c r="Q14">
-        <v>0.8951648051159998</v>
+        <v>1.046015677956</v>
       </c>
       <c r="R14">
-        <v>5.370988830696</v>
+        <v>6.276094067736</v>
       </c>
       <c r="S14">
-        <v>0.02197244238777098</v>
+        <v>0.02731953104539067</v>
       </c>
       <c r="T14">
-        <v>0.0177572878953001</v>
+        <v>0.02186709663165633</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.188097999999999</v>
+        <v>3.568381333333333</v>
       </c>
       <c r="H15">
-        <v>15.564294</v>
+        <v>10.705144</v>
       </c>
       <c r="I15">
-        <v>0.2347690179109961</v>
+        <v>0.1570000508245079</v>
       </c>
       <c r="J15">
-        <v>0.2526076655727249</v>
+        <v>0.1679468394610618</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.030780666666667</v>
+        <v>0.065664</v>
       </c>
       <c r="N15">
-        <v>3.092342</v>
+        <v>0.196992</v>
       </c>
       <c r="O15">
-        <v>0.5591250985412282</v>
+        <v>0.03897928305480977</v>
       </c>
       <c r="P15">
-        <v>0.6299307458374067</v>
+        <v>0.04374928377071069</v>
       </c>
       <c r="Q15">
-        <v>5.347791115172</v>
+        <v>0.234314191872</v>
       </c>
       <c r="R15">
-        <v>48.130120036548</v>
+        <v>2.108827726848</v>
       </c>
       <c r="S15">
-        <v>0.131265250273913</v>
+        <v>0.006119749420708015</v>
       </c>
       <c r="T15">
-        <v>0.1591253351784728</v>
+        <v>0.007347553937975987</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.188097999999999</v>
+        <v>3.568381333333333</v>
       </c>
       <c r="H16">
-        <v>15.564294</v>
+        <v>10.705144</v>
       </c>
       <c r="I16">
-        <v>0.2347690179109961</v>
+        <v>0.1570000508245079</v>
       </c>
       <c r="J16">
-        <v>0.2526076655727249</v>
+        <v>0.1679468394610618</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,33 +1429,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.03669233333333333</v>
+        <v>0.037129</v>
       </c>
       <c r="N16">
-        <v>0.110077</v>
+        <v>0.111387</v>
       </c>
       <c r="O16">
-        <v>0.01990297757237808</v>
+        <v>0.02204041484743592</v>
       </c>
       <c r="P16">
-        <v>0.02242342105418619</v>
+        <v>0.02473756026319928</v>
       </c>
       <c r="Q16">
-        <v>0.190363421182</v>
+        <v>0.1324904305253334</v>
       </c>
       <c r="R16">
-        <v>1.713270790638</v>
+        <v>1.192413874728</v>
       </c>
       <c r="S16">
-        <v>0.004672602498171782</v>
+        <v>0.003460346251240678</v>
       </c>
       <c r="T16">
-        <v>0.005664328046652263</v>
+        <v>0.004154595062181872</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.188097999999999</v>
+        <v>1.2581685</v>
       </c>
       <c r="H17">
-        <v>15.564294</v>
+        <v>2.516337</v>
       </c>
       <c r="I17">
-        <v>0.2347690179109961</v>
+        <v>0.0553563366674362</v>
       </c>
       <c r="J17">
-        <v>0.2526076655727249</v>
+        <v>0.03947736211385199</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.449119</v>
+        <v>0.257879</v>
       </c>
       <c r="N17">
-        <v>0.898238</v>
+        <v>0.515758</v>
       </c>
       <c r="O17">
-        <v>0.2436150708411985</v>
+        <v>0.1530814226195676</v>
       </c>
       <c r="P17">
-        <v>0.1829770876828955</v>
+        <v>0.1145429413327151</v>
       </c>
       <c r="Q17">
-        <v>2.330073385662</v>
+        <v>0.3244552346115001</v>
       </c>
       <c r="R17">
-        <v>13.980440313972</v>
+        <v>1.297820938446</v>
       </c>
       <c r="S17">
-        <v>0.05719327092970591</v>
+        <v>0.008474026768058871</v>
       </c>
       <c r="T17">
-        <v>0.04622141497287203</v>
+        <v>0.004521853172577297</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.188097999999999</v>
+        <v>1.2581685</v>
       </c>
       <c r="H18">
-        <v>15.564294</v>
+        <v>2.516337</v>
       </c>
       <c r="I18">
-        <v>0.2347690179109961</v>
+        <v>0.0553563366674362</v>
       </c>
       <c r="J18">
-        <v>0.2526076655727249</v>
+        <v>0.03947736211385199</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.04265333333333333</v>
+        <v>1.030780666666667</v>
       </c>
       <c r="N18">
-        <v>0.12796</v>
+        <v>3.092342</v>
       </c>
       <c r="O18">
-        <v>0.02313639552460095</v>
+        <v>0.6118891839276548</v>
       </c>
       <c r="P18">
-        <v>0.02606630774906351</v>
+        <v>0.6867677249537395</v>
       </c>
       <c r="Q18">
-        <v>0.2212896733599999</v>
+        <v>1.296895765209</v>
       </c>
       <c r="R18">
-        <v>1.99160706024</v>
+        <v>7.781374591254001</v>
       </c>
       <c r="S18">
-        <v>0.005431708855310929</v>
+        <v>0.03387194366866205</v>
       </c>
       <c r="T18">
-        <v>0.006584549150591163</v>
+        <v>0.02711177816610508</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.188097999999999</v>
+        <v>1.2581685</v>
       </c>
       <c r="H19">
-        <v>15.564294</v>
+        <v>2.516337</v>
       </c>
       <c r="I19">
-        <v>0.2347690179109961</v>
+        <v>0.0553563366674362</v>
       </c>
       <c r="J19">
-        <v>0.2526076655727249</v>
+        <v>0.03947736211385199</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1117726666666667</v>
+        <v>0.2931345</v>
       </c>
       <c r="N19">
-        <v>0.335318</v>
+        <v>0.5862689999999999</v>
       </c>
       <c r="O19">
-        <v>0.06062871111689701</v>
+        <v>0.174009695550532</v>
       </c>
       <c r="P19">
-        <v>0.06830651908252952</v>
+        <v>0.1302024896796356</v>
       </c>
       <c r="Q19">
-        <v>0.5798875483879999</v>
+        <v>0.36881259416325</v>
       </c>
       <c r="R19">
-        <v>5.218987935492</v>
+        <v>1.475250376653</v>
       </c>
       <c r="S19">
-        <v>0.0142337429661234</v>
+        <v>0.009632539290293325</v>
       </c>
       <c r="T19">
-        <v>0.01725475032883657</v>
+        <v>0.005140050833208053</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9062475000000001</v>
+        <v>1.2581685</v>
       </c>
       <c r="H20">
-        <v>1.812495</v>
+        <v>2.516337</v>
       </c>
       <c r="I20">
-        <v>0.04100902403140717</v>
+        <v>0.0553563366674362</v>
       </c>
       <c r="J20">
-        <v>0.02941669765504533</v>
+        <v>0.03947736211385199</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.172542</v>
+        <v>0.065664</v>
       </c>
       <c r="N20">
-        <v>0.345084</v>
+        <v>0.196992</v>
       </c>
       <c r="O20">
-        <v>0.09359174640369718</v>
+        <v>0.03897928305480977</v>
       </c>
       <c r="P20">
-        <v>0.07029591859391866</v>
+        <v>0.04374928377071069</v>
       </c>
       <c r="Q20">
-        <v>0.156365756145</v>
+        <v>0.082616376384</v>
       </c>
       <c r="R20">
-        <v>0.62546302458</v>
+        <v>0.495698258304</v>
       </c>
       <c r="S20">
-        <v>0.003838106177410584</v>
+        <v>0.002157750315837341</v>
       </c>
       <c r="T20">
-        <v>0.002067873783660985</v>
+        <v>0.001727106317638014</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9062475000000001</v>
+        <v>1.2581685</v>
       </c>
       <c r="H21">
-        <v>1.812495</v>
+        <v>2.516337</v>
       </c>
       <c r="I21">
-        <v>0.04100902403140717</v>
+        <v>0.0553563366674362</v>
       </c>
       <c r="J21">
-        <v>0.02941669765504533</v>
+        <v>0.03947736211385199</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>1.030780666666667</v>
+        <v>0.037129</v>
       </c>
       <c r="N21">
-        <v>3.092342</v>
+        <v>0.111387</v>
       </c>
       <c r="O21">
-        <v>0.5591250985412282</v>
+        <v>0.02204041484743592</v>
       </c>
       <c r="P21">
-        <v>0.6299307458374067</v>
+        <v>0.02473756026319928</v>
       </c>
       <c r="Q21">
-        <v>0.9341424022150002</v>
+        <v>0.04671453823650001</v>
       </c>
       <c r="R21">
-        <v>5.604854413290001</v>
+        <v>0.280287229419</v>
       </c>
       <c r="S21">
-        <v>0.02292917460264013</v>
+        <v>0.001220076624584622</v>
       </c>
       <c r="T21">
-        <v>0.0185304822939162</v>
+        <v>0.0009765736243235537</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9062475000000001</v>
+        <v>11.59014566666667</v>
       </c>
       <c r="H22">
-        <v>1.812495</v>
+        <v>34.770437</v>
       </c>
       <c r="I22">
-        <v>0.04100902403140717</v>
+        <v>0.5099380611965939</v>
       </c>
       <c r="J22">
-        <v>0.02941669765504533</v>
+        <v>0.545493362894508</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.03669233333333333</v>
+        <v>0.257879</v>
       </c>
       <c r="N22">
-        <v>0.110077</v>
+        <v>0.515758</v>
       </c>
       <c r="O22">
-        <v>0.01990297757237808</v>
+        <v>0.1530814226195676</v>
       </c>
       <c r="P22">
-        <v>0.02242342105418619</v>
+        <v>0.1145429413327151</v>
       </c>
       <c r="Q22">
-        <v>0.0332523353525</v>
+        <v>2.988855174374334</v>
       </c>
       <c r="R22">
-        <v>0.199514012115</v>
+        <v>17.933131046246</v>
       </c>
       <c r="S22">
-        <v>0.0008162016855622106</v>
+        <v>0.07806204385583874</v>
       </c>
       <c r="T22">
-        <v>0.0006596229975427729</v>
+        <v>0.06248241426341108</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9062475000000001</v>
+        <v>11.59014566666667</v>
       </c>
       <c r="H23">
-        <v>1.812495</v>
+        <v>34.770437</v>
       </c>
       <c r="I23">
-        <v>0.04100902403140717</v>
+        <v>0.5099380611965939</v>
       </c>
       <c r="J23">
-        <v>0.02941669765504533</v>
+        <v>0.545493362894508</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.449119</v>
+        <v>1.030780666666667</v>
       </c>
       <c r="N23">
-        <v>0.898238</v>
+        <v>3.092342</v>
       </c>
       <c r="O23">
-        <v>0.2436150708411985</v>
+        <v>0.6118891839276548</v>
       </c>
       <c r="P23">
-        <v>0.1829770876828955</v>
+        <v>0.6867677249537395</v>
       </c>
       <c r="Q23">
-        <v>0.4070129709525001</v>
+        <v>11.94689807705045</v>
       </c>
       <c r="R23">
-        <v>1.62805188381</v>
+        <v>107.522082693454</v>
       </c>
       <c r="S23">
-        <v>0.009990416294539671</v>
+        <v>0.3120255841192343</v>
       </c>
       <c r="T23">
-        <v>0.005382581666168456</v>
+        <v>0.3746272358124259</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9062475000000001</v>
+        <v>11.59014566666667</v>
       </c>
       <c r="H24">
-        <v>1.812495</v>
+        <v>34.770437</v>
       </c>
       <c r="I24">
-        <v>0.04100902403140717</v>
+        <v>0.5099380611965939</v>
       </c>
       <c r="J24">
-        <v>0.02941669765504533</v>
+        <v>0.545493362894508</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.04265333333333333</v>
+        <v>0.2931345</v>
       </c>
       <c r="N24">
-        <v>0.12796</v>
+        <v>0.5862689999999999</v>
       </c>
       <c r="O24">
-        <v>0.02313639552460095</v>
+        <v>0.174009695550532</v>
       </c>
       <c r="P24">
-        <v>0.02606630774906351</v>
+        <v>0.1302024896796356</v>
       </c>
       <c r="Q24">
-        <v>0.0386544767</v>
+        <v>3.3974715549255</v>
       </c>
       <c r="R24">
-        <v>0.2319268602</v>
+        <v>20.384829329553</v>
       </c>
       <c r="S24">
-        <v>0.0009488010000685016</v>
+        <v>0.08873416677844786</v>
       </c>
       <c r="T24">
-        <v>0.0007667846940375665</v>
+        <v>0.07102459395258191</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9062475000000001</v>
+        <v>11.59014566666667</v>
       </c>
       <c r="H25">
-        <v>1.812495</v>
+        <v>34.770437</v>
       </c>
       <c r="I25">
-        <v>0.04100902403140717</v>
+        <v>0.5099380611965939</v>
       </c>
       <c r="J25">
-        <v>0.02941669765504533</v>
+        <v>0.545493362894508</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1117726666666667</v>
+        <v>0.065664</v>
       </c>
       <c r="N25">
-        <v>0.335318</v>
+        <v>0.196992</v>
       </c>
       <c r="O25">
-        <v>0.06062871111689701</v>
+        <v>0.03897928305480977</v>
       </c>
       <c r="P25">
-        <v>0.06830651908252952</v>
+        <v>0.04374928377071069</v>
       </c>
       <c r="Q25">
-        <v>0.101293699735</v>
+        <v>0.761055325056</v>
       </c>
       <c r="R25">
-        <v>0.6077621984100001</v>
+        <v>6.849497925504</v>
       </c>
       <c r="S25">
-        <v>0.002486324271186073</v>
+        <v>0.01987702002780294</v>
       </c>
       <c r="T25">
-        <v>0.002009352219719355</v>
+        <v>0.02386494392831109</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.224085333333333</v>
+        <v>11.59014566666667</v>
       </c>
       <c r="H26">
-        <v>9.672256000000001</v>
+        <v>34.770437</v>
       </c>
       <c r="I26">
-        <v>0.145894573959072</v>
+        <v>0.5099380611965939</v>
       </c>
       <c r="J26">
-        <v>0.1569802015421825</v>
+        <v>0.545493362894508</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.172542</v>
+        <v>0.037129</v>
       </c>
       <c r="N26">
-        <v>0.345084</v>
+        <v>0.111387</v>
       </c>
       <c r="O26">
-        <v>0.09359174640369718</v>
+        <v>0.02204041484743592</v>
       </c>
       <c r="P26">
-        <v>0.07029591859391866</v>
+        <v>0.02473756026319928</v>
       </c>
       <c r="Q26">
-        <v>0.556290131584</v>
+        <v>0.4303305184576667</v>
       </c>
       <c r="R26">
-        <v>3.337740789504</v>
+        <v>3.872974666119</v>
       </c>
       <c r="S26">
-        <v>0.01365452796765291</v>
+        <v>0.01123924641527009</v>
       </c>
       <c r="T26">
-        <v>0.01103506746846621</v>
+        <v>0.01349417493777812</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.224085333333333</v>
+        <v>1.798348</v>
       </c>
       <c r="H27">
-        <v>9.672256000000001</v>
+        <v>5.395044</v>
       </c>
       <c r="I27">
-        <v>0.145894573959072</v>
+        <v>0.07912291345174399</v>
       </c>
       <c r="J27">
-        <v>0.1569802015421825</v>
+        <v>0.0846397384802451</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.030780666666667</v>
+        <v>0.257879</v>
       </c>
       <c r="N27">
-        <v>3.092342</v>
+        <v>0.515758</v>
       </c>
       <c r="O27">
-        <v>0.5591250985412282</v>
+        <v>0.1530814226195676</v>
       </c>
       <c r="P27">
-        <v>0.6299307458374067</v>
+        <v>0.1145429413327151</v>
       </c>
       <c r="Q27">
-        <v>3.323324829283556</v>
+        <v>0.4637561838920001</v>
       </c>
       <c r="R27">
-        <v>29.909923463552</v>
+        <v>2.782537103352</v>
       </c>
       <c r="S27">
-        <v>0.0815733180414966</v>
+        <v>0.0121122481529979</v>
       </c>
       <c r="T27">
-        <v>0.09888665543917347</v>
+        <v>0.009694884599159062</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.224085333333333</v>
+        <v>1.798348</v>
       </c>
       <c r="H28">
-        <v>9.672256000000001</v>
+        <v>5.395044</v>
       </c>
       <c r="I28">
-        <v>0.145894573959072</v>
+        <v>0.07912291345174399</v>
       </c>
       <c r="J28">
-        <v>0.1569802015421825</v>
+        <v>0.0846397384802451</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.03669233333333333</v>
+        <v>1.030780666666667</v>
       </c>
       <c r="N28">
-        <v>0.110077</v>
+        <v>3.092342</v>
       </c>
       <c r="O28">
-        <v>0.01990297757237808</v>
+        <v>0.6118891839276548</v>
       </c>
       <c r="P28">
-        <v>0.02242342105418619</v>
+        <v>0.6867677249537395</v>
       </c>
       <c r="Q28">
-        <v>0.1182992137457778</v>
+        <v>1.853702350338667</v>
       </c>
       <c r="R28">
-        <v>1.064692923712</v>
+        <v>16.683321153048</v>
       </c>
       <c r="S28">
-        <v>0.002903736433439064</v>
+        <v>0.04841445494196609</v>
       </c>
       <c r="T28">
-        <v>0.003520033156351366</v>
+        <v>0.05812784063675741</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.224085333333333</v>
+        <v>1.798348</v>
       </c>
       <c r="H29">
-        <v>9.672256000000001</v>
+        <v>5.395044</v>
       </c>
       <c r="I29">
-        <v>0.145894573959072</v>
+        <v>0.07912291345174399</v>
       </c>
       <c r="J29">
-        <v>0.1569802015421825</v>
+        <v>0.0846397384802451</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.449119</v>
+        <v>0.2931345</v>
       </c>
       <c r="N29">
-        <v>0.898238</v>
+        <v>0.5862689999999999</v>
       </c>
       <c r="O29">
-        <v>0.2436150708411985</v>
+        <v>0.174009695550532</v>
       </c>
       <c r="P29">
-        <v>0.1829770876828955</v>
+        <v>0.1302024896796356</v>
       </c>
       <c r="Q29">
-        <v>1.447997980821333</v>
+        <v>0.527157841806</v>
       </c>
       <c r="R29">
-        <v>8.687987884928001</v>
+        <v>3.162947050836</v>
       </c>
       <c r="S29">
-        <v>0.03554211697038579</v>
+        <v>0.01376815408080907</v>
       </c>
       <c r="T29">
-        <v>0.02872378010206254</v>
+        <v>0.01102030467596117</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.224085333333333</v>
+        <v>1.798348</v>
       </c>
       <c r="H30">
-        <v>9.672256000000001</v>
+        <v>5.395044</v>
       </c>
       <c r="I30">
-        <v>0.145894573959072</v>
+        <v>0.07912291345174399</v>
       </c>
       <c r="J30">
-        <v>0.1569802015421825</v>
+        <v>0.0846397384802451</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.04265333333333333</v>
+        <v>0.065664</v>
       </c>
       <c r="N30">
-        <v>0.12796</v>
+        <v>0.196992</v>
       </c>
       <c r="O30">
-        <v>0.02313639552460095</v>
+        <v>0.03897928305480977</v>
       </c>
       <c r="P30">
-        <v>0.02606630774906351</v>
+        <v>0.04374928377071069</v>
       </c>
       <c r="Q30">
-        <v>0.1375179864177778</v>
+        <v>0.118086723072</v>
       </c>
       <c r="R30">
-        <v>1.23766187776</v>
+        <v>1.062780507648</v>
       </c>
       <c r="S30">
-        <v>0.003375474568010234</v>
+        <v>0.003084154439556745</v>
       </c>
       <c r="T30">
-        <v>0.004091894243908544</v>
+        <v>0.003702927937050984</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.224085333333333</v>
+        <v>1.798348</v>
       </c>
       <c r="H31">
-        <v>9.672256000000001</v>
+        <v>5.395044</v>
       </c>
       <c r="I31">
-        <v>0.145894573959072</v>
+        <v>0.07912291345174399</v>
       </c>
       <c r="J31">
-        <v>0.1569802015421825</v>
+        <v>0.0846397384802451</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,400 +2359,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.1117726666666667</v>
+        <v>0.037129</v>
       </c>
       <c r="N31">
-        <v>0.335318</v>
+        <v>0.111387</v>
       </c>
       <c r="O31">
-        <v>0.06062871111689701</v>
+        <v>0.02204041484743592</v>
       </c>
       <c r="P31">
-        <v>0.06830651908252952</v>
+        <v>0.02473756026319928</v>
       </c>
       <c r="Q31">
-        <v>0.3603646152675556</v>
+        <v>0.066770862892</v>
       </c>
       <c r="R31">
-        <v>3.243281537408</v>
+        <v>0.6009377660280001</v>
       </c>
       <c r="S31">
-        <v>0.008845399978087341</v>
+        <v>0.001743901836414205</v>
       </c>
       <c r="T31">
-        <v>0.01072277113222042</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>7.677527666666666</v>
-      </c>
-      <c r="H32">
-        <v>23.032583</v>
-      </c>
-      <c r="I32">
-        <v>0.3474193491117236</v>
-      </c>
-      <c r="J32">
-        <v>0.3738175996765436</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0.5</v>
-      </c>
-      <c r="M32">
-        <v>0.172542</v>
-      </c>
-      <c r="N32">
-        <v>0.345084</v>
-      </c>
-      <c r="O32">
-        <v>0.09359174640369718</v>
-      </c>
-      <c r="P32">
-        <v>0.07029591859391866</v>
-      </c>
-      <c r="Q32">
-        <v>1.324695978662</v>
-      </c>
-      <c r="R32">
-        <v>7.948175871971999</v>
-      </c>
-      <c r="S32">
-        <v>0.03251558361780197</v>
-      </c>
-      <c r="T32">
-        <v>0.02627785155583639</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>7.677527666666666</v>
-      </c>
-      <c r="H33">
-        <v>23.032583</v>
-      </c>
-      <c r="I33">
-        <v>0.3474193491117236</v>
-      </c>
-      <c r="J33">
-        <v>0.3738175996765436</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.030780666666667</v>
-      </c>
-      <c r="N33">
-        <v>3.092342</v>
-      </c>
-      <c r="O33">
-        <v>0.5591250985412282</v>
-      </c>
-      <c r="P33">
-        <v>0.6299307458374067</v>
-      </c>
-      <c r="Q33">
-        <v>7.913847086598445</v>
-      </c>
-      <c r="R33">
-        <v>71.22462377938601</v>
-      </c>
-      <c r="S33">
-        <v>0.1942508778072218</v>
-      </c>
-      <c r="T33">
-        <v>0.2354791993713942</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>7.677527666666666</v>
-      </c>
-      <c r="H34">
-        <v>23.032583</v>
-      </c>
-      <c r="I34">
-        <v>0.3474193491117236</v>
-      </c>
-      <c r="J34">
-        <v>0.3738175996765436</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.03669233333333333</v>
-      </c>
-      <c r="N34">
-        <v>0.110077</v>
-      </c>
-      <c r="O34">
-        <v>0.01990297757237808</v>
-      </c>
-      <c r="P34">
-        <v>0.02242342105418619</v>
-      </c>
-      <c r="Q34">
-        <v>0.2817064043212222</v>
-      </c>
-      <c r="R34">
-        <v>2.535357638891</v>
-      </c>
-      <c r="S34">
-        <v>0.006914679513580824</v>
-      </c>
-      <c r="T34">
-        <v>0.00838226943501235</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>7.677527666666666</v>
-      </c>
-      <c r="H35">
-        <v>23.032583</v>
-      </c>
-      <c r="I35">
-        <v>0.3474193491117236</v>
-      </c>
-      <c r="J35">
-        <v>0.3738175996765436</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.449119</v>
-      </c>
-      <c r="N35">
-        <v>0.898238</v>
-      </c>
-      <c r="O35">
-        <v>0.2436150708411985</v>
-      </c>
-      <c r="P35">
-        <v>0.1829770876828955</v>
-      </c>
-      <c r="Q35">
-        <v>3.448123548125666</v>
-      </c>
-      <c r="R35">
-        <v>20.688741288754</v>
-      </c>
-      <c r="S35">
-        <v>0.08463658934545562</v>
-      </c>
-      <c r="T35">
-        <v>0.06840005571342445</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>7.677527666666666</v>
-      </c>
-      <c r="H36">
-        <v>23.032583</v>
-      </c>
-      <c r="I36">
-        <v>0.3474193491117236</v>
-      </c>
-      <c r="J36">
-        <v>0.3738175996765436</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M36">
-        <v>0.04265333333333333</v>
-      </c>
-      <c r="N36">
-        <v>0.12796</v>
-      </c>
-      <c r="O36">
-        <v>0.02313639552460095</v>
-      </c>
-      <c r="P36">
-        <v>0.02606630774906351</v>
-      </c>
-      <c r="Q36">
-        <v>0.3274721467422222</v>
-      </c>
-      <c r="R36">
-        <v>2.94724932068</v>
-      </c>
-      <c r="S36">
-        <v>0.008038031473948255</v>
-      </c>
-      <c r="T36">
-        <v>0.009744044595185009</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>7.677527666666666</v>
-      </c>
-      <c r="H37">
-        <v>23.032583</v>
-      </c>
-      <c r="I37">
-        <v>0.3474193491117236</v>
-      </c>
-      <c r="J37">
-        <v>0.3738175996765436</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.1117726666666667</v>
-      </c>
-      <c r="N37">
-        <v>0.335318</v>
-      </c>
-      <c r="O37">
-        <v>0.06062871111689701</v>
-      </c>
-      <c r="P37">
-        <v>0.06830651908252952</v>
-      </c>
-      <c r="Q37">
-        <v>0.8581377407104445</v>
-      </c>
-      <c r="R37">
-        <v>7.723239666394</v>
-      </c>
-      <c r="S37">
-        <v>0.02106358735371508</v>
-      </c>
-      <c r="T37">
-        <v>0.02553417900569121</v>
+        <v>0.00209378063131649</v>
       </c>
     </row>
   </sheetData>
